--- a/Data/EC/NIT-9013864221.xlsx
+++ b/Data/EC/NIT-9013864221.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9BD8953-E558-451B-89F2-E27AA40C8C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{965A5818-B4D3-4978-879D-E797FBC34791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BDE55457-7F49-451F-B833-660AF7F98D83}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C123F5FC-043F-4F6B-BDA1-764A1956061B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,34 +71,34 @@
     <t>JAIDER ENRIQUE TORRES VILORIA</t>
   </si>
   <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
     <t>2202</t>
   </si>
   <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
     <t>73549649</t>
   </si>
   <si>
     <t>EDER LUIS TORRES LAMBRAÃ?O</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -512,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B87914-A777-977D-5F31-436396713AA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0AE848-1276-2C9B-5385-527A0569D385}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1803DF-741F-4683-B4C2-7D0D592D733A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267DB7A9-87FA-4790-96F4-BB670809137D}">
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1041,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>34666</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1101,13 +1101,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
@@ -1130,7 +1130,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
@@ -1153,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1170,10 +1170,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1193,10 +1193,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
@@ -1216,16 +1216,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>34666</v>
       </c>
       <c r="G24" s="18">
         <v>1000000</v>
@@ -1239,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1262,13 +1262,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1285,16 +1285,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F27" s="18">
-        <v>34666</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
         <v>1000000</v>
@@ -1308,16 +1308,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F28" s="24">
-        <v>34666</v>
+        <v>40000</v>
       </c>
       <c r="G28" s="24">
         <v>1000000</v>

--- a/Data/EC/NIT-9013864221.xlsx
+++ b/Data/EC/NIT-9013864221.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{965A5818-B4D3-4978-879D-E797FBC34791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F990F0-9EA9-4EB1-8B41-3A0DC15B817C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C123F5FC-043F-4F6B-BDA1-764A1956061B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C3F5C2EE-8C5C-4F3C-9A91-B31E85BDF23A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,34 +71,34 @@
     <t>JAIDER ENRIQUE TORRES VILORIA</t>
   </si>
   <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>73549649</t>
+  </si>
+  <si>
+    <t>EDER LUIS TORRES LAMBRAÃ?O</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
     <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>73549649</t>
-  </si>
-  <si>
-    <t>EDER LUIS TORRES LAMBRAÃ?O</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -197,7 +197,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -210,9 +212,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -412,23 +412,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,10 +456,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0AE848-1276-2C9B-5385-527A0569D385}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728A986D-E8E2-1F48-AFAF-C17FA45422E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267DB7A9-87FA-4790-96F4-BB670809137D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C9758C-0269-4104-88F9-1D05F1D76E00}">
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1041,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>34666</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1124,13 +1124,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
@@ -1153,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1170,10 +1170,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1216,16 +1216,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>34666</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
         <v>1000000</v>
@@ -1239,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1262,13 +1262,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1285,16 +1285,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>34666</v>
       </c>
       <c r="G27" s="18">
         <v>1000000</v>
@@ -1308,16 +1308,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D28" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>15</v>
-      </c>
       <c r="F28" s="24">
-        <v>40000</v>
+        <v>34666</v>
       </c>
       <c r="G28" s="24">
         <v>1000000</v>
